--- a/docs/conduit_T-08_adatbevitel filebol_KRF.xlsx
+++ b/docs/conduit_T-08_adatbevitel filebol_KRF.xlsx
@@ -142,7 +142,22 @@
     <t>T-02 sikeresen lefutott</t>
   </si>
   <si>
-    <t>Username: a</t>
+    <t>T-03 sikeresen lefutott</t>
+  </si>
+  <si>
+    <t>T-08</t>
+  </si>
+  <si>
+    <t>Ismételt adatbevitel fileból</t>
+  </si>
+  <si>
+    <t>Két új bejegyzés létrehozása fájlból betöltött adatokkal</t>
+  </si>
+  <si>
+    <t>Két új bejegyzés létrejön</t>
+  </si>
+  <si>
+    <t>Username: user69</t>
   </si>
   <si>
     <r>
@@ -155,26 +170,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>a@a.hu</t>
+      <t>user69@gmail.hu</t>
     </r>
   </si>
   <si>
-    <t>Password: aaaAAA111</t>
-  </si>
-  <si>
-    <t>T-03 sikeresen lefutott</t>
-  </si>
-  <si>
-    <t>T-08</t>
-  </si>
-  <si>
-    <t>Ismételt adatbevitel fileból</t>
-  </si>
-  <si>
-    <t>Két új bejegyzés létrehozása fájlból betöltött adatokkal</t>
-  </si>
-  <si>
-    <t>Két új bejegyzés létrejön</t>
+    <t>Password: irsai10TC</t>
   </si>
 </sst>
 </file>
@@ -507,18 +507,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -529,32 +544,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -976,7 +976,7 @@
   <dimension ref="A1:IW24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -994,59 +994,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="30" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1062,25 +1062,25 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31">
+      <c r="E5" s="18"/>
+      <c r="F5" s="22">
         <v>44421</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1098,125 +1098,125 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="F7" s="28" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="I7" s="28" t="s">
+      <c r="G7" s="24"/>
+      <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="28"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="G8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="I10" s="28" t="s">
+      <c r="G10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>7</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="23" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="10"/>
@@ -1230,11 +1230,11 @@
       <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1246,11 +1246,11 @@
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="G16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1262,11 +1262,11 @@
       <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1278,9 +1278,9 @@
       <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1292,9 +1292,9 @@
       <c r="F19" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1310,51 +1310,51 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="18" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="20" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="31" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="20"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
@@ -1362,36 +1362,48 @@
       <c r="A24" s="12">
         <v>1</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
+      <c r="B24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22" t="s">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="27"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
@@ -1408,27 +1420,15 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="3" priority="2">
